--- a/www.eia.gov/outlooks/steo/xls/Probability_WTI.xlsx
+++ b/www.eia.gov/outlooks/steo/xls/Probability_WTI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs-f1\l6489\PRJ\Jan17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fs-f1\l6489\PRJ\Feb17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Contract</t>
   </si>
@@ -63,16 +63,13 @@
     <t/>
   </si>
   <si>
-    <t>(a)</t>
+    <t>Average NYMEX Data for Jan 27 - Feb 2</t>
   </si>
   <si>
-    <t>Average NYMEX Data for Dec 30 - Jan 5</t>
+    <t>Source:  EIA Short-Term Energy Outlook, February 2017, and CME Group (http://www.cmegroup.com)</t>
   </si>
   <si>
-    <t>Source:  EIA Short-Term Energy Outlook, January 2017, and CME Group (http://www.cmegroup.com)</t>
-  </si>
-  <si>
-    <t>Notes: Probability values calculated using NYMEX market data for the five trading days ending January 5, 2017.</t>
+    <t>Notes: Probability values calculated using NYMEX market data for the five trading days ending February 2, 2017.</t>
   </si>
 </sst>
 </file>
@@ -288,11 +285,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="880769504"/>
-        <c:axId val="880767824"/>
+        <c:axId val="252130032"/>
+        <c:axId val="252130592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="880769504"/>
+        <c:axId val="252130032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="880767824"/>
+        <c:crossAx val="252130592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -335,7 +332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="880767824"/>
+        <c:axId val="252130592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="880769504"/>
+        <c:crossAx val="252130032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -672,70 +669,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5826651498237537E-3</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.461578878614817E-2</c:v>
+                  <c:v>2.7694477536795272E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5640594513579382E-2</c:v>
+                  <c:v>1.9906435011805911E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8404395223191642E-2</c:v>
+                  <c:v>4.9672192234320352E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11400746253860866</c:v>
+                  <c:v>7.7826412263831107E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13051144350218963</c:v>
+                  <c:v>9.6396034034940709E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14629273817723873</c:v>
+                  <c:v>0.11554796078834063</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15702795924839152</c:v>
+                  <c:v>0.12803479712610802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16613740262564192</c:v>
+                  <c:v>0.13972488665898689</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17239445859324648</c:v>
+                  <c:v>0.14895764330767394</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.15725671334408192</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.16285262568741971</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.16841686760226712</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17229319360619857</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17606828887397338</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19008190523657023</c:v>
+                  <c:v>0.17765896455721497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18138792129504591</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18327730430300909</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18552642953495416</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18744056059339922</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18962954487988165</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.20233222865295269</c:v>
+                  <c:v>0.19032002755191663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,70 +870,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7578712733262373E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4349419290370126E-2</c:v>
+                  <c:v>2.2441385214283665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13626481693014089</c:v>
+                  <c:v>7.0333657429221888E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1783528181934699</c:v>
+                  <c:v>0.12013680135140532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20629100846230672</c:v>
+                  <c:v>0.15641833889593368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22255871486355921</c:v>
+                  <c:v>0.17741634507440995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23663934493484312</c:v>
+                  <c:v>0.19690771730028525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24557783609750411</c:v>
+                  <c:v>0.20890662715138988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25275563756308622</c:v>
+                  <c:v>0.2196142803076237</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25757500273356493</c:v>
+                  <c:v>0.2278206390664988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.23484144363259984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.2394967013131645</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.24406878333075882</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.24703880174084625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.24982873895146995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26662526758703087</c:v>
+                  <c:v>0.25092080074487821</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.25328050735506236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.25438148231756769</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.2557916329534643</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.257057769816598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.25858080899622238</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2732799826447832</c:v>
+                  <c:v>0.25918328658890655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,70 +1071,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13908722082872615</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22996881404874539</c:v>
+                  <c:v>0.11977956264832135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28692402251204324</c:v>
+                  <c:v>0.19925144206341905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32336097355203486</c:v>
+                  <c:v>0.253784397890221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34372929437704064</c:v>
+                  <c:v>0.28574716873341693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35408225497779344</c:v>
+                  <c:v>0.30224696822453367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36129854299701147</c:v>
+                  <c:v>0.31551334944915943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36515712130181788</c:v>
+                  <c:v>0.32324483612203636</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36774805556170009</c:v>
+                  <c:v>0.32969091316096294</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3694171854012851</c:v>
+                  <c:v>0.33448640082626402</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33813945364699916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3405249954811953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34284434143705023</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34398636737713462</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34489149169496391</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.36387331880843343</c:v>
+                  <c:v>0.34508390882893047</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34508498379613517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34487663536173035</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34488177765384953</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34505530755649438</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.34544424579996158</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.36164116470766561</c:v>
+                  <c:v>0.34585854961802731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,11 +1151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671738592"/>
-        <c:axId val="671739152"/>
+        <c:axId val="252133952"/>
+        <c:axId val="252134512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671738592"/>
+        <c:axId val="252133952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671739152"/>
+        <c:crossAx val="252134512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1243,7 +1240,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="671739152"/>
+        <c:axId val="252134512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1286,7 +1283,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671738592"/>
+        <c:crossAx val="252133952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1574,70 +1571,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5558696346943464E-4</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3851965728957127E-3</c:v>
+                  <c:v>1.2363827577682729E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5896225691851895E-2</c:v>
+                  <c:v>9.5894878199530575E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9460827576843873E-2</c:v>
+                  <c:v>2.6845670722130621E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3603719442969702E-2</c:v>
+                  <c:v>4.6437849794415675E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5076461094812901E-2</c:v>
+                  <c:v>6.1135569519803701E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9490726846585749E-2</c:v>
+                  <c:v>7.981244564793244E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1256663181314193E-2</c:v>
+                  <c:v>9.3033185426446119E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2785409795702822E-2</c:v>
+                  <c:v>0.10661877007171394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10121809032363005</c:v>
+                  <c:v>0.11785799356697479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.12929321957050099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.13721735073717678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14524976895503894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.15196091895867236</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.15905563684020463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14811571289315317</c:v>
+                  <c:v>0.16252826197871184</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.1718988716318699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17726252771376183</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18307967320314367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18763851137239596</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.19238412242446523</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18233864395608324</c:v>
+                  <c:v>0.19309971660581904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,70 +1772,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8053899544065231E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.031867843434735E-2</c:v>
+                  <c:v>3.5474424432111684E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6921414194917279E-2</c:v>
+                  <c:v>7.8323299506913302E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11372148327721032</c:v>
+                  <c:v>0.1197200818628118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13640308714773619</c:v>
+                  <c:v>0.15199771498654535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1527494893906326</c:v>
+                  <c:v>0.17208524455149132</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17190385586869361</c:v>
+                  <c:v>0.19536521921299355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18651332447510927</c:v>
+                  <c:v>0.21042142006169928</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20014197145461043</c:v>
+                  <c:v>0.22509460620666788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20968222987531471</c:v>
+                  <c:v>0.23665272324244091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.24816684164586755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.25590242426618603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.26356025543181061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27001840976665958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27679479714999244</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26108853961899336</c:v>
+                  <c:v>0.28013264775371327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.28914302938750192</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.29427469686480046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.29971417212340912</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.30388606753096137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.30813104597867658</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29449198188443093</c:v>
+                  <c:v>0.30866897238911362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,70 +1973,70 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20798090575606887</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23791364938121762</c:v>
+                  <c:v>0.23770093696427597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25593846647447149</c:v>
+                  <c:v>0.27810881072162508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27522830481054206</c:v>
+                  <c:v>0.30752876911420013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29196404243136198</c:v>
+                  <c:v>0.32844643002171003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.30420981470430253</c:v>
+                  <c:v>0.3409700992479382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31919541863727918</c:v>
+                  <c:v>0.35641638656222363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33057715155142531</c:v>
+                  <c:v>0.36610838185165306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3411448195191763</c:v>
+                  <c:v>0.37557392611318652</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34838887088838688</c:v>
+                  <c:v>0.38289425458847481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.39042701961693549</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.39541604095667426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.4002989797059533</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.40467802799645358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.40933769965780653</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39046570042615503</c:v>
+                  <c:v>0.41171357739654535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.41827470061926264</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42205974163752735</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.4259590982218926</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42886675371504124</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.43172769646006692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41576092732001091</c:v>
+                  <c:v>0.43194664852581743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683531920"/>
-        <c:axId val="683532480"/>
+        <c:axId val="244568736"/>
+        <c:axId val="244570416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="683531920"/>
+        <c:axId val="244568736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683532480"/>
+        <c:crossAx val="244570416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2145,7 +2142,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="683532480"/>
+        <c:axId val="244570416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2188,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683531920"/>
+        <c:crossAx val="244568736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2470,7 +2467,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Notes: Probability values calculated using NYMEX market data for the five trading days ending January 5, 2017.</a:t>
+            <a:t>Notes: Probability values calculated using NYMEX market data for the five trading days ending February 2, 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="800">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2525,7 +2522,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Source:  EIA Short-Term Energy Outlook, January 2017, and CME Group (http://www.cmegroup.com)</a:t>
+            <a:t>Source:  EIA Short-Term Energy Outlook, February 2017, and CME Group (http://www.cmegroup.com)</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="800">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -2887,7 +2884,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -3058,39 +3055,39 @@
       <c r="A7" s="9">
         <v>42795</v>
       </c>
-      <c r="B7" s="10">
-        <v>54.314</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.28819824999999993</v>
-      </c>
-      <c r="D7" s="6">
-        <v>28</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18" t="e">
         <f t="shared" si="0"/>
-        <v>3.5826651498237537E-3</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="1"/>
-        <v>2.7578712733262373E-2</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="1"/>
-        <v>0.13908722082872615</v>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="18">
+      <c r="I7" s="18" t="e">
         <f t="shared" si="2"/>
-        <v>0.20798090575606887</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="3"/>
-        <v>2.8053899544065231E-2</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="3"/>
-        <v>8.5558696346943464E-4</v>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3098,38 +3095,38 @@
         <v>42826</v>
       </c>
       <c r="B8" s="10">
-        <v>55.116</v>
+        <v>53.814000000000007</v>
       </c>
       <c r="C8" s="12">
-        <v>0.28771150000000001</v>
+        <v>0.28439492500000002</v>
       </c>
       <c r="D8" s="6">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" si="0"/>
-        <v>2.461578878614817E-2</v>
+        <v>2.7694477536795272E-3</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" si="1"/>
-        <v>8.4349419290370126E-2</v>
+        <v>2.2441385214283665E-2</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
-        <v>0.22996881404874539</v>
+        <v>0.11977956264832135</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="18">
         <f t="shared" si="2"/>
-        <v>0.23791364938121762</v>
+        <v>0.23770093696427597</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="3"/>
-        <v>6.031867843434735E-2</v>
+        <v>3.5474424432111684E-2</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="3"/>
-        <v>6.3851965728957127E-3</v>
+        <v>1.2363827577682729E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3137,38 +3134,38 @@
         <v>42856</v>
       </c>
       <c r="B9" s="10">
-        <v>55.777999999999999</v>
+        <v>54.326000000000001</v>
       </c>
       <c r="C9" s="12">
-        <v>0.28599304999999997</v>
+        <v>0.28567862499999996</v>
       </c>
       <c r="D9" s="6">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>5.5640594513579382E-2</v>
+        <v>1.9906435011805911E-2</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" si="1"/>
-        <v>0.13626481693014089</v>
+        <v>7.0333657429221888E-2</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>0.28692402251204324</v>
+        <v>0.19925144206341905</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="18">
         <f t="shared" si="2"/>
-        <v>0.25593846647447149</v>
+        <v>0.27810881072162508</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="3"/>
-        <v>8.6921414194917279E-2</v>
+        <v>7.8323299506913302E-2</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>1.5896225691851895E-2</v>
+        <v>9.5894878199530575E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3176,38 +3173,38 @@
         <v>42887</v>
       </c>
       <c r="B10" s="10">
-        <v>56.265999999999998</v>
+        <v>54.757999999999996</v>
       </c>
       <c r="C10" s="12">
-        <v>0.28747612499999997</v>
+        <v>0.29265872500000001</v>
       </c>
       <c r="D10" s="6">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>8.8404395223191642E-2</v>
+        <v>4.9672192234320352E-2</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" si="1"/>
-        <v>0.1783528181934699</v>
+        <v>0.12013680135140532</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
-        <v>0.32336097355203486</v>
+        <v>0.253784397890221</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="18">
         <f t="shared" si="2"/>
-        <v>0.27522830481054206</v>
+        <v>0.30752876911420013</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="3"/>
-        <v>0.11372148327721032</v>
+        <v>0.1197200818628118</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>2.9460827576843873E-2</v>
+        <v>2.6845670722130621E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3215,38 +3212,38 @@
         <v>42917</v>
       </c>
       <c r="B11" s="10">
-        <v>56.573999999999998</v>
+        <v>55.064</v>
       </c>
       <c r="C11" s="12">
-        <v>0.28918141785714291</v>
+        <v>0.29874287500000002</v>
       </c>
       <c r="D11" s="6">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>0.11400746253860866</v>
+        <v>7.7826412263831107E-2</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" si="1"/>
-        <v>0.20629100846230672</v>
+        <v>0.15641833889593368</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
-        <v>0.34372929437704064</v>
+        <v>0.28574716873341693</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="18">
         <f t="shared" si="2"/>
-        <v>0.29196404243136198</v>
+        <v>0.32844643002171003</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="3"/>
-        <v>0.13640308714773619</v>
+        <v>0.15199771498654535</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>4.3603719442969702E-2</v>
+        <v>4.6437849794415675E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3254,38 +3251,38 @@
         <v>42948</v>
       </c>
       <c r="B12" s="10">
-        <v>56.741999999999997</v>
+        <v>55.25</v>
       </c>
       <c r="C12" s="12">
-        <v>0.28411728000000003</v>
+        <v>0.29346794761904765</v>
       </c>
       <c r="D12" s="6">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="0"/>
-        <v>0.13051144350218963</v>
+        <v>9.6396034034940709E-2</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="1"/>
-        <v>0.22255871486355921</v>
+        <v>0.17741634507440995</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>0.35408225497779344</v>
+        <v>0.30224696822453367</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="18">
         <f t="shared" si="2"/>
-        <v>0.30420981470430253</v>
+        <v>0.3409700992479382</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="3"/>
-        <v>0.1527494893906326</v>
+        <v>0.17208524455149132</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>5.5076461094812901E-2</v>
+        <v>6.1135569519803701E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3293,38 +3290,38 @@
         <v>42979</v>
       </c>
       <c r="B13" s="10">
-        <v>56.844000000000008</v>
+        <v>55.379999999999995</v>
       </c>
       <c r="C13" s="12">
-        <v>0.28180594642857143</v>
+        <v>0.29255038214285711</v>
       </c>
       <c r="D13" s="6">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="0"/>
-        <v>0.14629273817723873</v>
+        <v>0.11554796078834063</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="1"/>
-        <v>0.23663934493484312</v>
+        <v>0.19690771730028525</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="1"/>
-        <v>0.36129854299701147</v>
+        <v>0.31551334944915943</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="18">
         <f t="shared" si="2"/>
-        <v>0.31919541863727918</v>
+        <v>0.35641638656222363</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="3"/>
-        <v>0.17190385586869361</v>
+        <v>0.19536521921299355</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="3"/>
-        <v>6.9490726846585749E-2</v>
+        <v>7.981244564793244E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3332,38 +3329,38 @@
         <v>43009</v>
       </c>
       <c r="B14" s="10">
-        <v>56.894000000000005</v>
+        <v>55.470000000000006</v>
       </c>
       <c r="C14" s="12">
-        <v>0.27941016666666674</v>
+        <v>0.28936083333333334</v>
       </c>
       <c r="D14" s="6">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" si="0"/>
-        <v>0.15702795924839152</v>
+        <v>0.12803479712610802</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="1"/>
-        <v>0.24557783609750411</v>
+        <v>0.20890662715138988</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="1"/>
-        <v>0.36515712130181788</v>
+        <v>0.32324483612203636</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="18">
         <f t="shared" si="2"/>
-        <v>0.33057715155142531</v>
+        <v>0.36610838185165306</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="3"/>
-        <v>0.18651332447510927</v>
+        <v>0.21042142006169928</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="3"/>
-        <v>8.1256663181314193E-2</v>
+        <v>9.3033185426446119E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3371,38 +3368,38 @@
         <v>43040</v>
       </c>
       <c r="B15" s="10">
-        <v>56.922000000000004</v>
+        <v>55.548000000000002</v>
       </c>
       <c r="C15" s="12">
-        <v>0.27598726666666668</v>
+        <v>0.28623345666666672</v>
       </c>
       <c r="D15" s="6">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="0"/>
-        <v>0.16613740262564192</v>
+        <v>0.13972488665898689</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" si="1"/>
-        <v>0.25275563756308622</v>
+        <v>0.2196142803076237</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" si="1"/>
-        <v>0.36774805556170009</v>
+        <v>0.32969091316096294</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="18">
         <f t="shared" si="2"/>
-        <v>0.3411448195191763</v>
+        <v>0.37557392611318652</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="3"/>
-        <v>0.20014197145461043</v>
+        <v>0.22509460620666788</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="3"/>
-        <v>9.2785409795702822E-2</v>
+        <v>0.10661877007171394</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3410,38 +3407,38 @@
         <v>43070</v>
       </c>
       <c r="B16" s="10">
-        <v>56.944000000000003</v>
+        <v>55.616</v>
       </c>
       <c r="C16" s="12">
-        <v>0.27109967142857144</v>
+        <v>0.28281760000000006</v>
       </c>
       <c r="D16" s="6">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" si="0"/>
-        <v>0.17239445859324648</v>
+        <v>0.14895764330767394</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" si="1"/>
-        <v>0.25757500273356493</v>
+        <v>0.2278206390664988</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
-        <v>0.3694171854012851</v>
+        <v>0.33448640082626402</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="18">
         <f t="shared" si="2"/>
-        <v>0.34838887088838688</v>
+        <v>0.38289425458847481</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="3"/>
-        <v>0.20968222987531471</v>
+        <v>0.23665272324244091</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="3"/>
-        <v>0.10121809032363005</v>
+        <v>0.11785799356697479</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3449,38 +3446,38 @@
         <v>43101</v>
       </c>
       <c r="B17" s="10">
-        <v>56.884</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>12</v>
+        <v>55.660000000000004</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.28110040000000003</v>
       </c>
       <c r="D17" s="6">
-        <v>238</v>
-      </c>
-      <c r="E17" s="18" t="e">
+        <v>219</v>
+      </c>
+      <c r="E17" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.15725671334408192</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
+        <v>0.23484144363259984</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="1"/>
+        <v>0.33813945364699916</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="18" t="e">
+      <c r="I17" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.39042701961693549</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.24816684164586755</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.12929321957050099</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3488,38 +3485,38 @@
         <v>43132</v>
       </c>
       <c r="B18" s="10">
-        <v>56.823999999999998</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>12</v>
+        <v>55.694000000000003</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.27626020000000001</v>
       </c>
       <c r="D18" s="6">
-        <v>259</v>
-      </c>
-      <c r="E18" s="18" t="e">
+        <v>240</v>
+      </c>
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.16285262568741971</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="1"/>
+        <v>0.2394967013131645</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="1"/>
+        <v>0.3405249954811953</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="18" t="e">
+      <c r="I18" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K18" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.39541604095667426</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="3"/>
+        <v>0.25590242426618603</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="3"/>
+        <v>0.13721735073717678</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3527,38 +3524,38 @@
         <v>43160</v>
       </c>
       <c r="B19" s="10">
-        <v>56.754000000000005</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>12</v>
+        <v>55.731999999999992</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.27308459999999996</v>
       </c>
       <c r="D19" s="6">
-        <v>279</v>
-      </c>
-      <c r="E19" s="18" t="e">
+        <v>260</v>
+      </c>
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.16841686760226712</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="1"/>
+        <v>0.24406878333075882</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34284434143705023</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="18" t="e">
+      <c r="I19" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.4002989797059533</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="3"/>
+        <v>0.26356025543181061</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="3"/>
+        <v>0.14524976895503894</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3566,38 +3563,38 @@
         <v>43191</v>
       </c>
       <c r="B20" s="10">
-        <v>56.679999999999993</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>12</v>
+        <v>55.738</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.26905420000000002</v>
       </c>
       <c r="D20" s="6">
-        <v>299</v>
-      </c>
-      <c r="E20" s="18" t="e">
+        <v>280</v>
+      </c>
+      <c r="E20" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.17229319360619857</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.24703880174084625</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34398636737713462</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="18" t="e">
+      <c r="I20" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.40467802799645358</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.27001840976665958</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.15196091895867236</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3605,38 +3602,38 @@
         <v>43221</v>
       </c>
       <c r="B21" s="10">
-        <v>56.60799999999999</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>12</v>
+        <v>55.736000000000004</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.26503280000000001</v>
       </c>
       <c r="D21" s="6">
-        <v>321</v>
-      </c>
-      <c r="E21" s="18" t="e">
+        <v>302</v>
+      </c>
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.17606828887397338</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="1"/>
+        <v>0.24982873895146995</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34489149169496391</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="18" t="e">
+      <c r="I21" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K21" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.40933769965780653</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="3"/>
+        <v>0.27679479714999244</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="3"/>
+        <v>0.15905563684020463</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3644,38 +3641,38 @@
         <v>43252</v>
       </c>
       <c r="B22" s="10">
-        <v>56.564</v>
+        <v>55.725999999999999</v>
       </c>
       <c r="C22" s="12">
-        <v>0.24954986666666668</v>
+        <v>0.2586059</v>
       </c>
       <c r="D22" s="6">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" si="0"/>
-        <v>0.19008190523657023</v>
+        <v>0.17765896455721497</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" si="1"/>
-        <v>0.26662526758703087</v>
+        <v>0.25092080074487821</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="1"/>
-        <v>0.36387331880843343</v>
+        <v>0.34508390882893047</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="18">
         <f t="shared" si="2"/>
-        <v>0.39046570042615503</v>
+        <v>0.41171357739654535</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="3"/>
-        <v>0.26108853961899336</v>
+        <v>0.28013264775371327</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="3"/>
-        <v>0.14811571289315317</v>
+        <v>0.16252826197871184</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3683,38 +3680,38 @@
         <v>43282</v>
       </c>
       <c r="B23" s="10">
-        <v>56.486000000000004</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>12</v>
+        <v>55.679999999999993</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.25795940000000001</v>
       </c>
       <c r="D23" s="6">
-        <v>363</v>
-      </c>
-      <c r="E23" s="18" t="e">
+        <v>344</v>
+      </c>
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18138792129504591</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="1"/>
+        <v>0.25328050735506236</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34508498379613517</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="18" t="e">
+      <c r="I23" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K23" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.41827470061926264</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="3"/>
+        <v>0.28914302938750192</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="3"/>
+        <v>0.1718988716318699</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3722,38 +3719,38 @@
         <v>43313</v>
       </c>
       <c r="B24" s="10">
-        <v>56.427999999999997</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>12</v>
+        <v>55.646000000000001</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.2542606</v>
       </c>
       <c r="D24" s="6">
-        <v>384</v>
-      </c>
-      <c r="E24" s="18" t="e">
+        <v>365</v>
+      </c>
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18327730430300909</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="1"/>
+        <v>0.25438148231756769</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34487663536173035</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="18" t="e">
+      <c r="I24" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K24" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.42205974163752735</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="3"/>
+        <v>0.29427469686480046</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17726252771376183</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3761,38 +3758,38 @@
         <v>43344</v>
       </c>
       <c r="B25" s="10">
-        <v>56.402000000000001</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>12</v>
+        <v>55.620000000000005</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.25112980000000001</v>
       </c>
       <c r="D25" s="6">
-        <v>406</v>
-      </c>
-      <c r="E25" s="18" t="e">
+        <v>387</v>
+      </c>
+      <c r="E25" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18552642953495416</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="1"/>
+        <v>0.2557916329534643</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34488177765384953</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="18" t="e">
+      <c r="I25" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K25" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.4259590982218926</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="3"/>
+        <v>0.29971417212340912</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18307967320314367</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3800,38 +3797,38 @@
         <v>43374</v>
       </c>
       <c r="B26" s="10">
-        <v>56.386000000000003</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>12</v>
+        <v>55.608000000000004</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.24791719999999998</v>
       </c>
       <c r="D26" s="6">
-        <v>427</v>
-      </c>
-      <c r="E26" s="18" t="e">
+        <v>408</v>
+      </c>
+      <c r="E26" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18744056059339922</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="1"/>
+        <v>0.257057769816598</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34505530755649438</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="18" t="e">
+      <c r="I26" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K26" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.42886675371504124</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="3"/>
+        <v>0.30388606753096137</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="3"/>
+        <v>0.18763851137239596</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3839,38 +3836,38 @@
         <v>43405</v>
       </c>
       <c r="B27" s="10">
-        <v>56.379999999999995</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>12</v>
+        <v>55.606000000000009</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.24502679999999999</v>
       </c>
       <c r="D27" s="6">
-        <v>449</v>
-      </c>
-      <c r="E27" s="18" t="e">
+        <v>430</v>
+      </c>
+      <c r="E27" s="18">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18962954487988165</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="1"/>
+        <v>0.25858080899622238</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="1"/>
+        <v>0.34544424579996158</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="18" t="e">
+      <c r="I27" s="18">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K27" s="18" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.43172769646006692</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="3"/>
+        <v>0.30813104597867658</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="3"/>
+        <v>0.19238412242446523</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3878,43 +3875,43 @@
         <v>43435</v>
       </c>
       <c r="B28" s="11">
-        <v>56.383999999999993</v>
+        <v>55.622</v>
       </c>
       <c r="C28" s="13">
-        <v>0.23577752738095242</v>
+        <v>0.24022866785714286</v>
       </c>
       <c r="D28" s="14">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
-        <v>0.20233222865295269</v>
+        <v>0.19032002755191663</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="1"/>
-        <v>0.2732799826447832</v>
+        <v>0.25918328658890655</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="1"/>
-        <v>0.36164116470766561</v>
+        <v>0.34585854961802731</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="19">
         <f t="shared" si="2"/>
-        <v>0.41576092732001091</v>
+        <v>0.43194664852581743</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="3"/>
-        <v>0.29449198188443093</v>
+        <v>0.30866897238911362</v>
       </c>
       <c r="K28" s="19">
         <f t="shared" si="3"/>
-        <v>0.18233864395608324</v>
+        <v>0.19309971660581904</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="12"/>
@@ -3929,23 +3926,23 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="str">
         <f>IF(COUNT(C5:C28)=COUNT(B5:B28),"","#N/A: ")</f>
-        <v xml:space="preserve">#N/A: </v>
+        <v/>
       </c>
       <c r="B31" t="str">
         <f>IF(COUNT(C5:C28)=COUNT(B5:B28),"","Probabilities not calculated for months with little trading in "&amp;"""close-to-the-money"""&amp;" options contracts")</f>
-        <v>Probabilities not calculated for months with little trading in "close-to-the-money" options contracts</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>IF(COUNT(C5:C28)=COUNT(B5:B28),"","           (a) Implied volatility measures may be unreliable if there is little trading in "&amp;"""close-to-the-money"""&amp;" options contracts")</f>
-        <v xml:space="preserve">           (a) Implied volatility measures may be unreliable if there is little trading in "close-to-the-money" options contracts</v>
+        <v/>
       </c>
     </row>
   </sheetData>
